--- a/dicionario_colunas_269.xlsx
+++ b/dicionario_colunas_269.xlsx
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Seção do formulário que classifica a natureza e origem principal do dado informado.</t>
   </si>
   <si>
-    <t xml:space="preserve">ipo de Informação Antes de responder ao formulário, declare o tipo de informação que será inserida.\xa0 </t>
+    <t xml:space="preserve">Tipo de Informação  Antes de responder ao formulário, declare o tipo de informação que será inserida.  </t>
   </si>
   <si>
     <t xml:space="preserve">tipo_envio</t>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Campo referente a: Tipo de Informação Antes de responder ao formulário, declare o tipo de informação que será inserida.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ano de referência</t>
+    <t xml:space="preserve">Ano de referência  </t>
   </si>
   <si>
     <t xml:space="preserve">ano_referencia</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Mês ou período específico dentro do ano de referência para os dados informados.</t>
   </si>
   <si>
-    <t xml:space="preserve">IDENTIFICAÇÃO DO ESTABELECIMENTO</t>
+    <t xml:space="preserve">IDENTIFICAÇÃO DO ESTABELECIMENTO </t>
   </si>
   <si>
     <t xml:space="preserve">identificacao_estabelecimento</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Nome do Município de localização do estabelecimento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Razão Social - Nome Fantasia</t>
+    <t xml:space="preserve">Razão Social - Nome Fantasia </t>
   </si>
   <si>
     <t xml:space="preserve">razao_social_nome_fantasia</t>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">Nome empresarial (Razão Social) e/ou nome de divulgação (Nome Fantasia) do estabelecimento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Razão Social - Nome Fantasia [Outros]</t>
+    <t xml:space="preserve">Razão Social - Nome Fantasia  [Outros]</t>
   </si>
   <si>
     <t xml:space="preserve">razao_social_nome_fantasia_outros</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">Natureza administrativa do estabelecimento (Público ou Privado).</t>
   </si>
   <si>
-    <t xml:space="preserve">Os dados informados referem-se à um(a):</t>
+    <t xml:space="preserve">Os dados informados referem-se à um(a): </t>
   </si>
   <si>
     <t xml:space="preserve">dados_informados_referem_se</t>
@@ -220,7 +220,7 @@
     <t xml:space="preserve">Indica se os dados reportados são de um único serviço ou de uma rede de serviços.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cite os estabelecimentos que compõem a rede Informe o Tipo de Estabelecimento, o Nome Fantasia e o Município de localização de cada um.</t>
+    <t xml:space="preserve">Cite os estabelecimentos que compõem a rede  Informe o Tipo de Estabelecimento, o Nome Fantasia e o Município de localização de cada um. </t>
   </si>
   <si>
     <t xml:space="preserve">rede_estabelecimento</t>
@@ -229,7 +229,7 @@
     <t xml:space="preserve">Campo referente a: Cite os estabelecimentos que compõem a rede Informe o Tipo de Estabelecimento, o Nome Fantasia e o Município de localização de cada um.</t>
   </si>
   <si>
-    <t xml:space="preserve">CNES - Cadastro Nacional de Estabelecimentos de Saúde</t>
+    <t xml:space="preserve">CNES - Cadastro Nacional de Estabelecimentos de Saúde </t>
   </si>
   <si>
     <t xml:space="preserve">cnes</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">Endereço completo de localização do estabelecimento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Triagem Clínica 2.1 Total de candidatos quanto ao tipo de doação [Espontânea][Aptos]</t>
+    <t xml:space="preserve">2. Triagem Clínica  2.1 Total de candidatos quanto ao tipo de doação  [Espontânea][Aptos]</t>
   </si>
   <si>
     <t xml:space="preserve">triagem_clinica_total_doacao_espontanea_aptos</t>
@@ -256,7 +256,7 @@
     <t xml:space="preserve">Contagem de candidatos aptos para doação espontânea.</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Triagem Clínica 2.1 Total de candidatos quanto ao tipo de doação [Espontânea][Inaptos]</t>
+    <t xml:space="preserve">2. Triagem Clínica  2.1 Total de candidatos quanto ao tipo de doação  [Espontânea][Inaptos]</t>
   </si>
   <si>
     <t xml:space="preserve">triagem_clinica_total_doacao_espontanea_inaptos</t>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">Contagem de candidatos inaptos para doação espontânea.</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Triagem Clínica 2.1 Total de candidatos quanto ao tipo de doação [Reposição][Aptos]</t>
+    <t xml:space="preserve">2. Triagem Clínica  2.1 Total de candidatos quanto ao tipo de doação  [Reposição][Aptos]</t>
   </si>
   <si>
     <t xml:space="preserve">triagem_clinica_total_doacao_reposicao_aptos</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">Contagem de candidatos aptos para doação reposição.</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Triagem Clínica 2.1 Total de candidatos quanto ao tipo de doação [Reposição][Inaptos]</t>
+    <t xml:space="preserve">2. Triagem Clínica  2.1 Total de candidatos quanto ao tipo de doação  [Reposição][Inaptos]</t>
   </si>
   <si>
     <t xml:space="preserve">triagem_clinica_total_doacao_reposicao_inaptos</t>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">Contagem de candidatos inaptos para doação reposição.</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Triagem Clínica 2.1 Total de candidatos quanto ao tipo de doação [Autóloga][Aptos]</t>
+    <t xml:space="preserve">2. Triagem Clínica  2.1 Total de candidatos quanto ao tipo de doação  [Autóloga][Aptos]</t>
   </si>
   <si>
     <t xml:space="preserve">triagem_clinica_total_doacao_autologa_aptos</t>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">Contagem de candidatos aptos para doação autóloga.</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Triagem Clínica 2.1 Total de candidatos quanto ao tipo de doação [Autóloga][Inaptos]</t>
+    <t xml:space="preserve">2. Triagem Clínica  2.1 Total de candidatos quanto ao tipo de doação  [Autóloga][Inaptos]</t>
   </si>
   <si>
     <t xml:space="preserve">triagem_clinica_total_doacao_autologa_inaptos</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">Contagem de candidatos inaptos para doação autóloga.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador [Primeira vez][Aptos]</t>
+    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador  [Primeira vez][Aptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_primeira_vez_aptos</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">Contagem de candidatos aptos do tipo primeira vez.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador [Primeira vez][Inaptos]</t>
+    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador  [Primeira vez][Inaptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_primeira_vez_inaptos</t>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">Contagem de candidatos inaptos do tipo primeira vez.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador [Repetição][Aptos]</t>
+    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador  [Repetição][Aptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_repeticao_aptos</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">Contagem de candidatos aptos do tipo repetição.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador [Repetição][Inaptos]</t>
+    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador  [Repetição][Inaptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_repeticao_inaptos</t>
@@ -337,7 +337,7 @@
     <t xml:space="preserve">Contagem de candidatos inaptos do tipo repetição.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador [Esporádico][Aptos]</t>
+    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador  [Esporádico][Aptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_esporadico_aptos</t>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">Contagem de candidatos aptos do tipo esporádico.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador [Esporádico][Inaptos]</t>
+    <t xml:space="preserve">2.2 Total de candidatos quanto ao tipo de doador  [Esporádico][Inaptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_esporadico_inaptos</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">Contagem de candidatos inaptos do tipo esporádico.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3 Total de candidatos quanto ao gênero do doador [Masculino][Aptos]</t>
+    <t xml:space="preserve">2.3 Total de candidatos quanto ao gênero do doador  [Masculino][Aptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_masculino_aptos</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">Contagem de candidatos aptos do gênero masculino.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3 Total de candidatos quanto ao gênero do doador [Masculino][Inaptos]</t>
+    <t xml:space="preserve">2.3 Total de candidatos quanto ao gênero do doador  [Masculino][Inaptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_masculino_inaptos</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">Contagem de candidatos inaptos do gênero masculino.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3 Total de candidatos quanto ao gênero do doador [Feminino][Aptos]</t>
+    <t xml:space="preserve">2.3 Total de candidatos quanto ao gênero do doador  [Feminino][Aptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_feminino_aptos</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Contagem de candidatos aptos do gênero feminino.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3 Total de candidatos quanto ao gênero do doador [Feminino][Inaptos]</t>
+    <t xml:space="preserve">2.3 Total de candidatos quanto ao gênero do doador  [Feminino][Inaptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_feminino_inaptos</t>
@@ -391,7 +391,7 @@
     <t xml:space="preserve">Contagem de candidatos inaptos do gênero feminino.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador [Menor de 18 anos][Aptos]</t>
+    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador  [Menor de 18 anos][Aptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_menor_de_18_anos_aptos</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">Contagem de candidatos aptos na faixa etária: Menor de 18 anos.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador [Menor de 18 anos][Inaptos]</t>
+    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador  [Menor de 18 anos][Inaptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_menor_de_18_anos_inaptos</t>
@@ -409,7 +409,7 @@
     <t xml:space="preserve">Contagem de candidatos inaptos na faixa etária: Menor de 18 anos.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador [18 até 29 anos][Aptos]</t>
+    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador  [18 até 29 anos][Aptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_18_ate_29_anos_aptos</t>
@@ -418,7 +418,7 @@
     <t xml:space="preserve">Contagem de candidatos aptos na faixa etária: 18 até 29 anos.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador [18 até 29 anos][Inaptos]</t>
+    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador  [18 até 29 anos][Inaptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_18_ate_29_anos_inaptos</t>
@@ -427,7 +427,7 @@
     <t xml:space="preserve">Contagem de candidatos inaptos na faixa etária: 18 até 29 anos.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador [Acima de 29 anos][Aptos]</t>
+    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador  [Acima de 29 anos][Aptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_acima_de_29_anos_aptos</t>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">Contagem de candidatos aptos na faixa etária: Acima de 29 anos.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador [Acima de 29 anos][Inaptos]</t>
+    <t xml:space="preserve">2.4 Total de candidatos quanto a idade do doador  [Acima de 29 anos][Inaptos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_doador_acima_de_29_anos_inaptos</t>
@@ -445,7 +445,7 @@
     <t xml:space="preserve">Contagem de candidatos inaptos na faixa etária: Acima de 29 anos.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Anemia][Masculino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Anemia][Masculino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_anemia_masculino</t>
@@ -454,7 +454,7 @@
     <t xml:space="preserve">Contagem de homens inaptos devido à Anemia (baixo nível de hemoglobina).</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Anemia][Feminino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Anemia][Feminino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_anemia_feminino</t>
@@ -463,7 +463,7 @@
     <t xml:space="preserve">Contagem de mulheres inaptas devido à Anemia.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Anemia][Total]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Anemia][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_anemia_total</t>
@@ -472,7 +472,7 @@
     <t xml:space="preserve">Total de candidatos (ambos os sexos) inaptos devido à Anemia.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Hipertensão][Masculino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Hipertensão][Masculino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_hipertensao_masculino</t>
@@ -481,7 +481,7 @@
     <t xml:space="preserve">Contagem de homens inaptos devido à Hipertensão (pressão alta).</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Hipertensão][Feminino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Hipertensão][Feminino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_hipertensao_feminino</t>
@@ -490,7 +490,7 @@
     <t xml:space="preserve">Contagem de mulheres inaptas devido à Hipertensão.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Hipertensão][Total]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Hipertensão][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_hipertensao_total</t>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">Total de candidatos (ambos os sexos) inaptos devido à Hipertensão.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Hipotensão][Masculino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Hipotensão][Masculino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_hipotensao_masculino</t>
@@ -508,7 +508,7 @@
     <t xml:space="preserve">Contagem de homens inaptos devido à Hipotensão (pressão baixa).</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Hipotensão][Feminino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Hipotensão][Feminino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_hipotensao_feminino</t>
@@ -517,7 +517,7 @@
     <t xml:space="preserve">Contagem de mulheres inaptas devido à Hipotensão.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Hipotensão][Total]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Hipotensão][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_hipotensao_total</t>
@@ -526,7 +526,7 @@
     <t xml:space="preserve">Total de candidatos (ambos os sexos) inaptos devido à Hipotensão.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Alcoolismo][Masculino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Alcoolismo][Masculino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_alcoolismo_masculino</t>
@@ -535,7 +535,7 @@
     <t xml:space="preserve">Contagem de homens inaptos devido a Alcoolismo ou uso abusivo de álcool.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Alcoolismo][Feminino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Alcoolismo][Feminino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_alcoolismo_feminino</t>
@@ -544,7 +544,7 @@
     <t xml:space="preserve">Contagem de mulheres inaptas devido a Alcoolismo ou uso abusivo de álcool.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Alcoolismo][Total]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Alcoolismo][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_alcoolismo_total</t>
@@ -553,7 +553,7 @@
     <t xml:space="preserve">Total de candidatos (ambos os sexos) inaptos devido a Alcoolismo ou uso abusivo de álcool.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Comportamento de risco para DST][Masculino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Comportamento de risco para DST][Masculino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_comportamento_risco_dst_masculino</t>
@@ -562,7 +562,7 @@
     <t xml:space="preserve">Contagem de homens inaptos devido a Comportamento de risco para DST (Doenças Sexualmente Transmissíveis).</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Comportamento de risco para DST][Feminino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Comportamento de risco para DST][Feminino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_comportamento_risco_dst_feminino</t>
@@ -571,7 +571,7 @@
     <t xml:space="preserve">Contagem de mulheres inaptas devido a Comportamento de risco para DST.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Comportamento de risco para DST][Total]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Comportamento de risco para DST][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_comportamento_risco_dst_total</t>
@@ -580,7 +580,7 @@
     <t xml:space="preserve">Total de candidatos (ambos os sexos) inaptos devido a Comportamento de risco para DST.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Uso de drogas][Masculino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Uso de drogas][Masculino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_uso_drogas_masculino</t>
@@ -589,7 +589,7 @@
     <t xml:space="preserve">Contagem de homens inaptos devido ao Uso de drogas injetáveis ou ilícitas.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Uso de drogas][Feminino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Uso de drogas][Feminino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_uso_drogas_feminino</t>
@@ -598,7 +598,7 @@
     <t xml:space="preserve">Contagem de mulheres inaptas devido ao Uso de drogas.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Uso de drogas][Total]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Uso de drogas][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_uso_drogas_total</t>
@@ -607,7 +607,7 @@
     <t xml:space="preserve">Total de candidatos (ambos os sexos) inaptos devido ao Uso de drogas.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Hepatite][Masculino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Hepatite][Masculino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_hepatite_masculino</t>
@@ -616,7 +616,7 @@
     <t xml:space="preserve">Contagem de homens inaptos devido a histórico ou evidência de Hepatite.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Hepatite][Feminino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Hepatite][Feminino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_hepatite_feminino</t>
@@ -625,7 +625,7 @@
     <t xml:space="preserve">Contagem de mulheres inaptas devido a histórico ou evidência de Hepatite.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Hepatite][Total]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Hepatite][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_hepatite_total</t>
@@ -634,7 +634,7 @@
     <t xml:space="preserve">Total de candidatos (ambos os sexos) inaptos devido a histórico ou evidência de Hepatite.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Doença de Chagas][Masculino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Doença de Chagas][Masculino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_doenca_chagas_masculino</t>
@@ -643,7 +643,7 @@
     <t xml:space="preserve">Contagem de homens inaptos devido a Doença de Chagas.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Doença de Chagas][Feminino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Doença de Chagas][Feminino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_doenca_chagas_feminino</t>
@@ -652,7 +652,7 @@
     <t xml:space="preserve">Contagem de mulheres inaptas devido a Doença de Chagas.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Doença de Chagas][Total]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Doença de Chagas][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_doenca_chagas_total</t>
@@ -661,7 +661,7 @@
     <t xml:space="preserve">Total de candidatos (ambos os sexos) inaptos devido a Doença de Chagas.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Malária][Masculino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Malária][Masculino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_malaria_masculino</t>
@@ -670,7 +670,7 @@
     <t xml:space="preserve">Contagem de homens inaptos devido a Malária (viagem/exposição/histórico).</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Malária][Feminino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Malária][Feminino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_malaria_feminino</t>
@@ -679,7 +679,7 @@
     <t xml:space="preserve">Contagem de mulheres inaptas devido a Malária.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Malária][Total]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Malária][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_malaria_total</t>
@@ -688,7 +688,7 @@
     <t xml:space="preserve">Total de candidatos (ambos os sexos) inaptos devido a Malária.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Outras][Masculino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Outras][Masculino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_outras_masculino</t>
@@ -697,7 +697,7 @@
     <t xml:space="preserve">Contagem de homens inaptos por Outras razões não listadas.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Outras][Feminino]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Outras][Feminino]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_outras_feminino</t>
@@ -706,7 +706,7 @@
     <t xml:space="preserve">Contagem de mulheres inaptas por Outras razões não listadas.</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero [Outras][Total]</t>
+    <t xml:space="preserve">2.5 Total de candidatos inaptos por motivo de inaptidão e por gênero  [Outras][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">total_candidatos_inaptos_outras_total</t>
@@ -715,7 +715,7 @@
     <t xml:space="preserve">Total de candidatos (ambos os sexos) inaptos por Outras razões.</t>
   </si>
   <si>
-    <t xml:space="preserve">3. Coleta 3.1 Total de candidatos desistentes</t>
+    <t xml:space="preserve">3. Coleta  3.1 Total de candidatos desistentes </t>
   </si>
   <si>
     <t xml:space="preserve">coleta_total_candidatos_desistentes</t>
@@ -724,7 +724,7 @@
     <t xml:space="preserve">Total de candidatos que desistiram durante a etapa de coleta de sangue.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2 Total de interrupções na coleta por [Dificuldade de punção venosa]</t>
+    <t xml:space="preserve">3.2 Total de interrupções na coleta por [Dificuldade de punção venosa]</t>
   </si>
   <si>
     <t xml:space="preserve">total_interrupcoes_coleta_dificuldade_puncao_venosa</t>
@@ -733,7 +733,7 @@
     <t xml:space="preserve">Número de interrupções na coleta devido a Dificuldade de Punção Venosa.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2 Total de interrupções na coleta por [Reação vagal]</t>
+    <t xml:space="preserve">3.2 Total de interrupções na coleta por [Reação vagal]</t>
   </si>
   <si>
     <t xml:space="preserve">total_interrupcoes_coleta_reacao_vagal</t>
@@ -742,7 +742,7 @@
     <t xml:space="preserve">Número de interrupções na coleta causadas por Reação Vagal (mal-estar, tontura, síncope).</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2 Total de interrupções na coleta por [Outros motivos]</t>
+    <t xml:space="preserve">3.2 Total de interrupções na coleta por [Outros motivos]</t>
   </si>
   <si>
     <t xml:space="preserve">total_interrupcoes_coleta_outros_motivos</t>
@@ -751,7 +751,7 @@
     <t xml:space="preserve">Número de interrupções na coleta devido a Outros Motivos não especificados.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3 Total de coletas [Sangue total]</t>
+    <t xml:space="preserve">3.3 Total de coletas [Sangue total]</t>
   </si>
   <si>
     <t xml:space="preserve">total_coletas_sangue_total</t>
@@ -760,7 +760,7 @@
     <t xml:space="preserve">Total de coletas realizadas pelo método tradicional de Sangue Total.</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3 Total de coletas [Por aférese]</t>
+    <t xml:space="preserve">3.3 Total de coletas [Por aférese]</t>
   </si>
   <si>
     <t xml:space="preserve">total_coletas_aferese</t>
@@ -778,7 +778,7 @@
     <t xml:space="preserve">Campo de observações textuais para a seção HEMOPROD 1 (Triagem/Coleta).</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Doença de Chagas][Amostras testadas]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Doença de Chagas][Amostras testadas]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_doenca_chagas_amostras_testadas</t>
@@ -787,7 +787,7 @@
     <t xml:space="preserve">Número de amostras de sangue testadas para o marcador de Doença de Chagas.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Doença de Chagas][Amostras reagentes]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Doença de Chagas][Amostras reagentes]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_doenca_chagas_amostras_reagentes</t>
@@ -796,7 +796,7 @@
     <t xml:space="preserve">Número de amostras com resultado REAGENTE para o marcador de Doença de Chagas.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [HIV][Amostras testadas]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [HIV][Amostras testadas]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hiv_amostras_testadas</t>
@@ -805,7 +805,7 @@
     <t xml:space="preserve">Número de amostras testadas para HIV.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [HIV][Amostras reagentes]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [HIV][Amostras reagentes]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hiv_amostras_reagentes</t>
@@ -814,7 +814,7 @@
     <t xml:space="preserve">Número de amostras com resultado REAGENTE para HIV.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Sífilis ][Amostras testadas]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Sífilis ][Amostras testadas]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_sifilis_amostras_testadas</t>
@@ -823,7 +823,7 @@
     <t xml:space="preserve">Número de amostras testadas para Sífilis.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Sífilis ][Amostras reagentes]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Sífilis ][Amostras reagentes]</t>
   </si>
   <si>
     <t xml:space="preserve">`exames_triagem_doenca_sifilis_amostras_reagentes</t>
@@ -832,7 +832,7 @@
     <t xml:space="preserve">Número de amostras com resultado REAGENTE para Sífilis.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Hepatite B - HBs Ag ][Amostras testadas]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Hepatite B - HBs Ag ][Amostras testadas]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hepatite_b_hbs_ag_amostras_testadas</t>
@@ -841,7 +841,7 @@
     <t xml:space="preserve">Número de amostras testadas para HBsAg (Antígeno de Superfície da Hepatite B).</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Hepatite B - HBs Ag ][Amostras reagentes]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Hepatite B - HBs Ag ][Amostras reagentes]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hepatite_b_hbs_ag_amostras_reagentes</t>
@@ -850,7 +850,7 @@
     <t xml:space="preserve">Número de amostras com resultado REAGENTE para HBsAg.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Hepatite B - Anti HBc ][Amostras testadas]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Hepatite B - Anti HBc ][Amostras testadas]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hepatite_b_anti_hbc_amostras_testadas</t>
@@ -859,7 +859,7 @@
     <t xml:space="preserve">Número de amostras testadas para Anti-HBc (Anticorpo Total contra o Core do Vírus da Hepatite B).</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Hepatite B - Anti HBc ][Amostras reagentes]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Hepatite B - Anti HBc ][Amostras reagentes]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hepatite_b_anti_hbc_amostras_reagentes</t>
@@ -868,7 +868,7 @@
     <t xml:space="preserve">Número de amostras com resultado REAGENTE para Anti-HBc.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Hepatite C][Amostras testadas]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Hepatite C][Amostras testadas]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hepatite_c_amostras_testadas</t>
@@ -877,7 +877,7 @@
     <t xml:space="preserve">Número de amostras testadas para Hepatite C.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Hepatite C][Amostras reagentes]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Hepatite C][Amostras reagentes]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hepatite_c_amostras_reagentes</t>
@@ -886,7 +886,7 @@
     <t xml:space="preserve">Número de amostras com resultado REAGENTE para Hepatite C.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [HTLV I e II ][Amostras testadas]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [HTLV I e II ][Amostras testadas]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_htlv_i_ii_amostras_testadas</t>
@@ -895,7 +895,7 @@
     <t xml:space="preserve">Número de amostras testadas para HTLV I e II.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [HTLV I e II ][Amostras reagentes]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [HTLV I e II ][Amostras reagentes]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_htlv_i_ii_amostras_reagentes</t>
@@ -904,7 +904,7 @@
     <t xml:space="preserve">Número de amostras com resultado REAGENTE para HTLV I e II.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Malária][Amostras testadas]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Malária][Amostras testadas]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_malaria_amostras_testadas</t>
@@ -913,7 +913,7 @@
     <t xml:space="preserve">Número de amostras testadas para Malária.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [Malária][Amostras reagentes]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [Malária][Amostras reagentes]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_malaria_amostras_reagentes</t>
@@ -922,7 +922,7 @@
     <t xml:space="preserve">Número de amostras com resultado REAGENTE para Malária.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [HBV (Teste NAT)*][Amostras testadas]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [HBV (Teste NAT)*][Amostras testadas]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hbv_teste_nat_amostras_testadas</t>
@@ -931,7 +931,7 @@
     <t xml:space="preserve">Número de amostras testadas para HBV (Vírus da Hepatite B) pelo Teste NAT.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [HBV (Teste NAT)*][Amostras reagentes]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [HBV (Teste NAT)*][Amostras reagentes]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hbv_teste_nat_amostras_reagentes</t>
@@ -940,7 +940,7 @@
     <t xml:space="preserve">Número de amostras com resultado REAGENTE para HBV pelo Teste NAT.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [HCV (Teste NAT)*][Amostras testadas]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [HCV (Teste NAT)*][Amostras testadas]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hcv_teste_nat_amostras_testadas</t>
@@ -949,7 +949,7 @@
     <t xml:space="preserve">Número de amostras testadas para HCV (Vírus da Hepatite C) pelo Teste NAT.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [HCV (Teste NAT)*][Amostras reagentes]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [HCV (Teste NAT)*][Amostras reagentes]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hcv_teste_nat_amostras_reagentes</t>
@@ -958,7 +958,7 @@
     <t xml:space="preserve">Número de amostras com resultado REAGENTE para HCV pelo Teste NAT.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [HIV (Teste NAT)*][Amostras testadas]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [HIV (Teste NAT)*][Amostras testadas]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hiv_teste_nat_amostras_testadas</t>
@@ -967,7 +967,7 @@
     <t xml:space="preserve">Número de amostras testadas para HIV pelo Teste NAT.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Exames Realizados 4.1 Triagem de doenças transmissíveis pelo sangue [HIV (Teste NAT)*][Amostras reagentes]</t>
+    <t xml:space="preserve">4. Exames Realizados  4.1 Triagem de doenças transmissíveis pelo sangue  [HIV (Teste NAT)*][Amostras reagentes]</t>
   </si>
   <si>
     <t xml:space="preserve">exames_triagem_doenca_hiv_teste_nat_amostras_reagentes</t>
@@ -1192,7 +1192,7 @@
     <t xml:space="preserve">Número de testes de Coombs Direto realizados em Receptores.</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3 Outros tipos de pesquisa [Pesquisa de HbS no doador]</t>
+    <t xml:space="preserve">4.3 Outros tipos de pesquisa [Pesquisa de HbS no doador]</t>
   </si>
   <si>
     <t xml:space="preserve">outros_tipos_pesquisa_pesquisa_hbs_doador</t>
@@ -1219,7 +1219,7 @@
     <t xml:space="preserve">Total de bolsas consideradas inaptas por apresentarem resultado reagente para um ou mais marcadores de doenças infecciosas.</t>
   </si>
   <si>
-    <t xml:space="preserve">5. Descarte de Bolsas 5.1 Descarte de bolsas [Total de bolsas descartadas por auto-exclusão]</t>
+    <t xml:space="preserve">5. Descarte de Bolsas  5.1 Descarte de bolsas  [Total de bolsas descartadas por auto-exclusão]</t>
   </si>
   <si>
     <t xml:space="preserve">descarte_bolsas_total_bolsas_descartadas_auto_exclusao</t>
@@ -1228,7 +1228,7 @@
     <t xml:space="preserve">Número total de bolsas de sangue descartadas devido à autoexclusão confidencial do doador, após a doação.</t>
   </si>
   <si>
-    <t xml:space="preserve">HEMOPROD_2 - Observações</t>
+    <t xml:space="preserve">HEMOPROD_2 - Observações</t>
   </si>
   <si>
     <t xml:space="preserve">hemoprod_2_observacoes</t>
@@ -1237,7 +1237,7 @@
     <t xml:space="preserve">Campo de observações textuais para a seção HEMOPROD 2 (Exames e Descarte).</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Sangue total][Produzidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Sangue total][Produzidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_sangue_total_produzidas</t>
@@ -1246,7 +1246,7 @@
     <t xml:space="preserve">Quantidade de unidades de Sangue Total que foram PRODUZIDAS (coletadas) pela unidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Sangue total][Recebidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Sangue total][Recebidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_sangue_total_recebidas</t>
@@ -1255,7 +1255,7 @@
     <t xml:space="preserve">Quantidade de unidades de Sangue Total que foram RECEBIDAS de outras unidades (Entradas).</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Sangue total][Devolvidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Sangue total][Devolvidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_sangue_total_devolvidas</t>
@@ -1264,7 +1264,7 @@
     <t xml:space="preserve">Quantidade de unidades de Sangue Total que foram DEVOLVIDAS à unidade após empréstimo ou remessa.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Plasma Fresco Congelado][Produzidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Plasma Fresco Congelado][Produzidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_plasma_fresco_congelado_produzidas</t>
@@ -1273,7 +1273,7 @@
     <t xml:space="preserve">Quantidade de unidades de Plasma Fresco Congelado (PFC) que foram PRODUZIDAS na unidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Plasma Fresco Congelado][Recebidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Plasma Fresco Congelado][Recebidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_plasma_fresco_congelado_recebidas</t>
@@ -1282,7 +1282,7 @@
     <t xml:space="preserve">Quantidade de unidades de Plasma Fresco Congelado (PFC) que foram RECEBIDAS de outras unidades.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Plasma Fresco Congelado][Devolvidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Plasma Fresco Congelado][Devolvidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_plasma_fresco_congelado_devolvidas</t>
@@ -1291,7 +1291,7 @@
     <t xml:space="preserve">Quantidade de unidades de Plasma Fresco Congelado (PFC) que foram DEVOLVIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Plasma comum][Produzidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Plasma comum][Produzidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_plasma_comum_produzidas</t>
@@ -1300,7 +1300,7 @@
     <t xml:space="preserve">Quantidade de unidades de Plasma Comum que foram PRODUZIDAS na unidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Plasma comum][Recebidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Plasma comum][Recebidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_plasma_comum_recebidas</t>
@@ -1309,7 +1309,7 @@
     <t xml:space="preserve">Quantidade de unidades de Plasma Comum que foram RECEBIDAS de outras unidades.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Plasma comum][Devolvidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Plasma comum][Devolvidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_plasma_comum_devolvidas</t>
@@ -1318,7 +1318,7 @@
     <t xml:space="preserve">Quantidade de unidades de Plasma Comum que foram DEVOLVIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Hemácias][Produzidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Hemácias][Produzidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_hemacias_produzidas</t>
@@ -1327,7 +1327,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Hemácias (CH) que foram PRODUZIDAS (processadas) na unidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Hemácias][Recebidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Hemácias][Recebidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_hemacias_recebidas</t>
@@ -1336,7 +1336,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Hemácias (CH) que foram RECEBIDAS de outras unidades.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Hemácias][Devolvidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Hemácias][Devolvidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_hemacias_devolvidas</t>
@@ -1345,7 +1345,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Hemácias (CH) que foram DEVOLVIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Hemácias sem buffy coat][Produzidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Hemácias sem buffy coat][Produzidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_hemacias_sem_buffy_coat_produzidas</t>
@@ -1354,7 +1354,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Hemácias sem Buffy Coat que foram PRODUZIDAS na unidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Hemácias sem buffy coat][Recebidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Hemácias sem buffy coat][Recebidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_hemacias_sem_buffy_coat_recebidas</t>
@@ -1363,7 +1363,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Hemácias sem Buffy Coat que foram RECEBIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Hemácias sem buffy coat][Devolvidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Hemácias sem buffy coat][Devolvidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_hemacias_sem_buffy_coat_devolvidas</t>
@@ -1372,7 +1372,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Hemácias sem Buffy Coat que foram DEVOLVIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Plaquetas][Produzidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Plaquetas][Produzidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_plaquetas_produzidas</t>
@@ -1381,7 +1381,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Plaquetas (CP) que foram PRODUZIDAS na unidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Plaquetas][Recebidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Plaquetas][Recebidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_plaquetas_recebidas</t>
@@ -1390,7 +1390,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Plaquetas (CP) que foram RECEBIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Plaquetas][Devolvidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Plaquetas][Devolvidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_plaquetas_devolvidas</t>
@@ -1399,7 +1399,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Plaquetas (CP) que foram DEVOLVIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Plaquetas de Aférese][Produzidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Plaquetas de Aférese][Produzidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_plaquetas_aferese_produzidas</t>
@@ -1408,7 +1408,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Plaquetas de Aférese que foram PRODUZIDAS na unidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Plaquetas de Aférese][Recebidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Plaquetas de Aférese][Recebidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_plaquetas_aferese_recebidas</t>
@@ -1417,7 +1417,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Plaquetas de Aférese que foram RECEBIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Plaquetas de Aférese][Devolvidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Plaquetas de Aférese][Devolvidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_plaquetas_aferese_devolvidas</t>
@@ -1426,7 +1426,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Plaquetas de Aférese que foram DEVOLVIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Leucócitos][Produzidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Leucócitos][Produzidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_leucocitos_produzidas</t>
@@ -1435,7 +1435,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Leucócitos que foram PRODUZIDAS na unidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Leucócitos][Recebidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Leucócitos][Recebidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_leucocitos_recebidas</t>
@@ -1444,7 +1444,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Leucócitos que foram RECEBIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Leucócitos][Devolvidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Leucócitos][Devolvidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_leucocitos_devolvidas</t>
@@ -1453,7 +1453,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Leucócitos que foram DEVOLVIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Crioprecipitado][Produzidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Crioprecipitado][Produzidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_crioprecipitado_produzidas</t>
@@ -1462,7 +1462,7 @@
     <t xml:space="preserve">Quantidade de unidades de Crioprecipitado que foram PRODUZIDAS na unidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Crioprecipitado][Recebidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Crioprecipitado][Recebidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_crioprecipitado_recebidas</t>
@@ -1471,7 +1471,7 @@
     <t xml:space="preserve">Quantidade de unidades de Crioprecipitado que foram RECEBIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Crioprecipitado][Devolvidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Crioprecipitado][Devolvidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_crioprecipitado_devolvidas</t>
@@ -1480,7 +1480,7 @@
     <t xml:space="preserve">Quantidade de unidades de Crioprecipitado que foram DEVOLVIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Plaquetas sem buffy coat][Produzidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Plaquetas sem buffy coat][Produzidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_de_plaquetas_sem_buffy_coat_produzidas</t>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Plaquetas sem Buffy Coat que foram PRODUZIDAS na unidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Plaquetas sem buffy coat][Recebidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Plaquetas sem buffy coat][Recebidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_de_plaquetas_sem_buffy_coat_recebidas</t>
@@ -1498,7 +1498,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Plaquetas sem Buffy Coat que foram RECEBIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Produção Hemoterápica 6.1(a) Entradas [Concentrado de Plaquetas sem buffy coat][Devolvidas]</t>
+    <t xml:space="preserve">6. Produção Hemoterápica  6.1(a) Entradas   [Concentrado de Plaquetas sem buffy coat][Devolvidas]</t>
   </si>
   <si>
     <t xml:space="preserve">producao_hemoterapica_entradas_concentrado_de_plaquetas_sem_buffy_coat_devolvidas</t>
@@ -1507,7 +1507,7 @@
     <t xml:space="preserve">Quantidade de unidades de Concentrado de Plaquetas sem Buffy Coat que foram DEVOLVIDAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Sangue total][Rompimento de Bolsa]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Sangue total][Rompimento de Bolsa]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_sangue_total_rompimento_de_bolsa</t>
@@ -1516,7 +1516,7 @@
     <t xml:space="preserve">Perdas de Sangue total por rompimento de bolsa.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Sangue total][Validade]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Sangue total][Validade]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_sangue_total_validade</t>
@@ -1525,7 +1525,7 @@
     <t xml:space="preserve">Perdas de Sangue total por vencimento da validade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Sangue total][Outros motivos]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Sangue total][Outros motivos]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_sangue_total_outros_motivos</t>
@@ -1534,7 +1534,7 @@
     <t xml:space="preserve">Perdas de Sangue total por outros motivos não especificados.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Plasma Fresco Congelado][Rompimento de Bolsa]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Plasma Fresco Congelado][Rompimento de Bolsa]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_plasma_fresco_congelado_rompimento_de_bolsa</t>
@@ -1543,7 +1543,7 @@
     <t xml:space="preserve">Perdas de Plasma Fresco Congelado por rompimento de bolsa.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Plasma Fresco Congelado][Validade]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Plasma Fresco Congelado][Validade]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_plasma_fresco_congelado_validade</t>
@@ -1552,7 +1552,7 @@
     <t xml:space="preserve">Perdas de Plasma Fresco Congelado por vencimento da validade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Plasma Fresco Congelado][Outros motivos]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Plasma Fresco Congelado][Outros motivos]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_plasma_fresco_congelado_outros_motivos</t>
@@ -1561,7 +1561,7 @@
     <t xml:space="preserve">Perdas de Plasma Fresco Congelado por outros motivos não especificados.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Plasma comum][Rompimento de Bolsa]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Plasma comum][Rompimento de Bolsa]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_plasma_comum_rompimento_de_bolsa</t>
@@ -1570,7 +1570,7 @@
     <t xml:space="preserve">Perdas de Plasma comum por rompimento de bolsa.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Plasma comum][Validade]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Plasma comum][Validade]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_plasma_comum_validade</t>
@@ -1579,7 +1579,7 @@
     <t xml:space="preserve">Perdas de Plasma comum por vencimento da validade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Plasma comum][Outros motivos]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Plasma comum][Outros motivos]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_plasma_comum_outros_motivos</t>
@@ -1588,7 +1588,7 @@
     <t xml:space="preserve">Perdas de Plasma comum por outros motivos não especificados.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Hemácias][Rompimento de Bolsa]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Hemácias][Rompimento de Bolsa]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_hemacias_rompimento_de_bolsa</t>
@@ -1597,7 +1597,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Hemácias por rompimento de bolsa.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Hemácias][Validade]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Hemácias][Validade]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_hemacias_validade</t>
@@ -1606,7 +1606,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Hemácias por vencimento da validade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Hemácias][Outros motivos]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Hemácias][Outros motivos]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_hemacias_outros_motivos</t>
@@ -1615,7 +1615,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Hemácias por outros motivos não especificados.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Hemácias sem buffy coat][Rompimento de Bolsa]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Hemácias sem buffy coat][Rompimento de Bolsa]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_hemacias_sem_buffy_coat_rompimento_de_bolsa</t>
@@ -1624,7 +1624,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Hemácias sem buffy coat por rompimento de bolsa.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Hemácias sem buffy coat][Validade]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Hemácias sem buffy coat][Validade]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_hemacias_sem_buffy_coat_validade</t>
@@ -1633,7 +1633,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Hemácias sem buffy coat por vencimento da validade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Hemácias sem buffy coat][Outros motivos]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Hemácias sem buffy coat][Outros motivos]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_hemacias_sem_buffy_coat_outros_motivos</t>
@@ -1642,7 +1642,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Hemácias sem buffy coat por outros motivos não especificados.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Plaquetas][Rompimento de Bolsa]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Plaquetas][Rompimento de Bolsa]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_plaquetas_rompimento_de_bolsa</t>
@@ -1651,7 +1651,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Plaquetas por rompimento de bolsa.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Plaquetas][Validade]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Plaquetas][Validade]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_plaquetas_validade</t>
@@ -1660,7 +1660,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Plaquetas por vencimento da validade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Plaquetas][Outros motivos]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Plaquetas][Outros motivos]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_plaquetas_outros_motivos</t>
@@ -1669,7 +1669,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Plaquetas por outros motivos não especificados.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Plaquetas de Aférese][Rompimento de Bolsa]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Plaquetas de Aférese][Rompimento de Bolsa]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_plaquetas_de_aferese_rompimento_de_bolsa</t>
@@ -1678,7 +1678,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Plaquetas de Aférese por rompimento de bolsa.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Plaquetas de Aférese][Validade]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Plaquetas de Aférese][Validade]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_plaquetas_de_aferese_validade</t>
@@ -1687,7 +1687,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Plaquetas de Aférese por vencimento da validade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Plaquetas de Aférese][Outros motivos]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Plaquetas de Aférese][Outros motivos]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_plaquetas_de_aferese_outros_motivos</t>
@@ -1696,7 +1696,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Plaquetas de Aférese por outros motivos não especificados.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Leucócitos][Rompimento de Bolsa]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Leucócitos][Rompimento de Bolsa]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_leucocitos_rompimento_de_bolsa</t>
@@ -1705,7 +1705,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Leucócitos por rompimento de bolsa.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Leucócitos][Validade]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Leucócitos][Validade]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_leucocitos_validade</t>
@@ -1714,7 +1714,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Leucócitos por vencimento da validade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Leucócitos][Outros motivos]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Leucócitos][Outros motivos]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_leucocitos_outros_motivos</t>
@@ -1723,7 +1723,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Leucócitos por outros motivos não especificados.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Crioprecipitado][Rompimento de Bolsa]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Crioprecipitado][Rompimento de Bolsa]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_crioprecipitado_rompimento_de_bolsa</t>
@@ -1732,7 +1732,7 @@
     <t xml:space="preserve">Perdas de Crioprecipitado por rompimento de bolsa.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Crioprecipitado][Validade]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Crioprecipitado][Validade]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_crioprecipitado_validade</t>
@@ -1741,7 +1741,7 @@
     <t xml:space="preserve">Perdas de Crioprecipitado por vencimento da validade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Crioprecipitado][Outros motivos]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Crioprecipitado][Outros motivos]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_crioprecipitado_outros_motivos</t>
@@ -1750,7 +1750,7 @@
     <t xml:space="preserve">Perdas de Crioprecipitado por outros motivos não especificados.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Plaquetas sem buffy coat][Rompimento de Bolsa]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Plaquetas sem buffy coat][Rompimento de Bolsa]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_plaquetas_sem_buffy_coat_rompimento_de_bolsa</t>
@@ -1759,7 +1759,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Plaquetas sem buffy coat por rompimento de bolsa.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Plaquetas sem buffy coat][Validade]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Plaquetas sem buffy coat][Validade]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_plaquetas_sem_buffy_coat_validade</t>
@@ -1768,7 +1768,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Plaquetas sem buffy coat por vencimento da validade.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(b) Perdas [Concentrado de Plaquetas sem buffy coat][Outros motivos]</t>
+    <t xml:space="preserve">6.1(b) Perdas  [Concentrado de Plaquetas sem buffy coat][Outros motivos]</t>
   </si>
   <si>
     <t xml:space="preserve">perdas_concentrado_de_plaquetas_sem_buffy_coat_outros_motivos</t>
@@ -1777,7 +1777,7 @@
     <t xml:space="preserve">Perdas de Concentrado de Plaquetas sem buffy coat por outros motivos não especificados.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Sangue total][Ambulatorial]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Sangue total][Ambulatorial]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_sangue_total_ambulatorial</t>
@@ -1786,7 +1786,7 @@
     <t xml:space="preserve">Número de transfusões de Sangue total realizadas em ambiente ambulatorial.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Sangue total][Hospitalar]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Sangue total][Hospitalar]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_sangue_total_hospitalar</t>
@@ -1795,7 +1795,7 @@
     <t xml:space="preserve">Número de transfusões de Sangue total realizadas em ambiente hospitalar.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Sangue total][Total]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Sangue total][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_sangue_total_total</t>
@@ -1804,7 +1804,7 @@
     <t xml:space="preserve">Número de transfusões de Sangue total realizadas em ambiente total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Plasma Fresco Congelado][Ambulatorial]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Plasma Fresco Congelado][Ambulatorial]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_plasma_fresco_congelado_ambulatorial</t>
@@ -1813,7 +1813,7 @@
     <t xml:space="preserve">Número de transfusões de Plasma Fresco Congelado realizadas em ambiente ambulatorial.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Plasma Fresco Congelado][Hospitalar]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Plasma Fresco Congelado][Hospitalar]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_plasma_fresco_congelado_hospitalar</t>
@@ -1822,7 +1822,7 @@
     <t xml:space="preserve">Número de transfusões de Plasma Fresco Congelado realizadas em ambiente hospitalar.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Plasma Fresco Congelado][Total]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Plasma Fresco Congelado][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_plasma_fresco_congelado_total</t>
@@ -1831,7 +1831,7 @@
     <t xml:space="preserve">Número de transfusões de Plasma Fresco Congelado realizadas em ambiente total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Plasma comum][Ambulatorial]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Plasma comum][Ambulatorial]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_plasma_comum_ambulatorial</t>
@@ -1840,7 +1840,7 @@
     <t xml:space="preserve">Número de transfusões de Plasma comum realizadas em ambiente ambulatorial.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Plasma comum][Hospitalar]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Plasma comum][Hospitalar]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_plasma_comum_hospitalar</t>
@@ -1849,7 +1849,7 @@
     <t xml:space="preserve">Número de transfusões de Plasma comum realizadas em ambiente hospitalar.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Plasma comum][Total]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Plasma comum][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_plasma_comum_total</t>
@@ -1858,7 +1858,7 @@
     <t xml:space="preserve">Número de transfusões de Plasma comum realizadas em ambiente total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Hemácias][Ambulatorial]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Hemácias][Ambulatorial]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_hemacias_ambulatorial</t>
@@ -1867,7 +1867,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Hemácias realizadas em ambiente ambulatorial.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Hemácias][Hospitalar]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Hemácias][Hospitalar]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_hemacias_hospitalar</t>
@@ -1876,7 +1876,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Hemácias realizadas em ambiente hospitalar.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Hemácias][Total]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Hemácias][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_hemacias_total</t>
@@ -1885,7 +1885,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Hemácias realizadas em ambiente total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Hemácias sem buffy coat][Ambulatorial]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Hemácias sem buffy coat][Ambulatorial]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_hemacias_sem_buffy_coat_ambulatorial</t>
@@ -1894,7 +1894,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Hemácias sem buffy coat realizadas em ambiente ambulatorial.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Hemácias sem buffy coat][Hospitalar]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Hemácias sem buffy coat][Hospitalar]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_hemacias_sem_buffy_coat_hospitalar</t>
@@ -1903,7 +1903,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Hemácias sem buffy coat realizadas em ambiente hospitalar.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Hemácias sem buffy coat][Total]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Hemácias sem buffy coat][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_hemacias_sem_buffy_coat_total</t>
@@ -1912,7 +1912,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Hemácias sem buffy coat realizadas em ambiente total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Plaquetas][Ambulatorial]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Plaquetas][Ambulatorial]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_plaquetas_ambulatorial</t>
@@ -1921,7 +1921,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Plaquetas realizadas em ambiente ambulatorial.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Plaquetas][Hospitalar]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Plaquetas][Hospitalar]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_plaquetas_hospitalar</t>
@@ -1930,7 +1930,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Plaquetas realizadas em ambiente hospitalar.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Plaquetas][Total]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Plaquetas][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_plaquetas_total</t>
@@ -1939,7 +1939,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Plaquetas realizadas em ambiente total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Plaquetas de Aférese][Ambulatorial]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Plaquetas de Aférese][Ambulatorial]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_plaquetas_de_aferese_ambulatorial</t>
@@ -1948,7 +1948,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Plaquetas de Aférese realizadas em ambiente ambulatorial.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Plaquetas de Aférese][Hospitalar]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Plaquetas de Aférese][Hospitalar]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_plaquetas_de_aferese_hospitalar</t>
@@ -1957,7 +1957,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Plaquetas de Aférese realizadas em ambiente hospitalar.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Plaquetas de Aférese][Total]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Plaquetas de Aférese][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_plaquetas_de_aferese_total</t>
@@ -1966,7 +1966,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Plaquetas de Aférese realizadas em ambiente total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Leucócitos][Ambulatorial]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Leucócitos][Ambulatorial]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_leucocitos_ambulatorial</t>
@@ -1975,7 +1975,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Leucócitos realizadas em ambiente ambulatorial.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Leucócitos][Hospitalar]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Leucócitos][Hospitalar]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_leucocitos_hospitalar</t>
@@ -1984,7 +1984,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Leucócitos realizadas em ambiente hospitalar.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Leucócitos][Total]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Leucócitos][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_leucocitos_total</t>
@@ -1993,7 +1993,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Leucócitos realizadas em ambiente total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Crioprecipitado][Ambulatorial]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Crioprecipitado][Ambulatorial]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_crioprecipitado_ambulatorial</t>
@@ -2002,7 +2002,7 @@
     <t xml:space="preserve">Número de transfusões de Crioprecipitado realizadas em ambiente ambulatorial.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Crioprecipitado][Hospitalar]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Crioprecipitado][Hospitalar]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_crioprecipitado_hospitalar</t>
@@ -2011,7 +2011,7 @@
     <t xml:space="preserve">Número de transfusões de Crioprecipitado realizadas em ambiente hospitalar.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Crioprecipitado][Total]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Crioprecipitado][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_crioprecipitado_total</t>
@@ -2020,7 +2020,7 @@
     <t xml:space="preserve">Número de transfusões de Crioprecipitado realizadas em ambiente total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Plaquetas sem buffy coat][Ambulatorial]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Plaquetas sem buffy coat][Ambulatorial]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_plaquetas_sem_buffy_coat_ambulatorial</t>
@@ -2029,7 +2029,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Plaquetas sem buffy coat realizadas em ambiente ambulatorial.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Plaquetas sem buffy coat][Hospitalar]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Plaquetas sem buffy coat][Hospitalar]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_plaquetas_sem_buffy_coat_hospitalar</t>
@@ -2038,7 +2038,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Plaquetas sem buffy coat realizadas em ambiente hospitalar.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(c) Tranfusões [Concentrado de Plaquetas sem buffy coat][Total]</t>
+    <t xml:space="preserve">6.1(c) Tranfusões  [Concentrado de Plaquetas sem buffy coat][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">tranfusoes_concentrado_de_plaquetas_sem_buffy_coat_total</t>
@@ -2047,7 +2047,7 @@
     <t xml:space="preserve">Número de transfusões de Concentrado de Plaquetas sem buffy coat realizadas em ambiente total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Sangue total][Sem exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Sangue total][Sem exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_sangue_total_sem_exame_pre_transfusional</t>
@@ -2056,7 +2056,7 @@
     <t xml:space="preserve">Distribuição de Sangue total para outros serviços sem exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Sangue total][Com exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Sangue total][Com exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_sangue_total_com_exame_pre_transfusional</t>
@@ -2065,7 +2065,7 @@
     <t xml:space="preserve">Distribuição de Sangue total para outros serviços com exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Sangue total][Total]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Sangue total][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_sangue_total_total</t>
@@ -2074,7 +2074,7 @@
     <t xml:space="preserve">Distribuição de Sangue total para outros serviços total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Plasma Fresco Congelado][Sem exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Plasma Fresco Congelado][Sem exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_plasma_fresco_congelado_sem_exame_pre_transfusional</t>
@@ -2083,7 +2083,7 @@
     <t xml:space="preserve">Distribuição de Plasma Fresco Congelado para outros serviços sem exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Plasma Fresco Congelado][Com exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Plasma Fresco Congelado][Com exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_plasma_fresco_congelado_com_exame_pre_transfusional</t>
@@ -2092,7 +2092,7 @@
     <t xml:space="preserve">Distribuição de Plasma Fresco Congelado para outros serviços com exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Plasma Fresco Congelado][Total]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Plasma Fresco Congelado][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_plasma_fresco_congelado_total</t>
@@ -2101,7 +2101,7 @@
     <t xml:space="preserve">Distribuição de Plasma Fresco Congelado para outros serviços total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Plasma comum][Sem exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Plasma comum][Sem exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_plasma_comum_sem_exame_pre_transfusional</t>
@@ -2110,7 +2110,7 @@
     <t xml:space="preserve">Distribuição de Plasma comum para outros serviços sem exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Plasma comum][Com exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Plasma comum][Com exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_plasma_comum_com_exame_pre_transfusional</t>
@@ -2119,7 +2119,7 @@
     <t xml:space="preserve">Distribuição de Plasma comum para outros serviços com exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Plasma comum][Total]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Plasma comum][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_plasma_comum_total</t>
@@ -2128,7 +2128,7 @@
     <t xml:space="preserve">Distribuição de Plasma comum para outros serviços total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Hemácias][Sem exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Hemácias][Sem exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_exame_pre_transfusional</t>
@@ -2137,7 +2137,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Hemácias para outros serviços sem exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Hemácias][Com exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Hemácias][Com exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_hemacias_com_exame_pre_transfusional</t>
@@ -2146,7 +2146,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Hemácias para outros serviços com exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Hemácias][Total]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Hemácias][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_hemacias_total</t>
@@ -2155,7 +2155,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Hemácias para outros serviços total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Hemácias sem buffy coat][Sem exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Hemácias sem buffy coat][Sem exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_buffy_coat_sem_exame_pre_transfusi</t>
@@ -2164,7 +2164,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Hemácias sem buffy coat para outros serviços sem exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Hemácias sem buffy coat][Com exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Hemácias sem buffy coat][Com exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_buffy_coat_com_exame_pre_transfusi</t>
@@ -2173,7 +2173,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Hemácias sem buffy coat para outros serviços com exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Hemácias sem buffy coat][Total]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Hemácias sem buffy coat][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_hemacias_sem_buffy_coat_total</t>
@@ -2182,7 +2182,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Hemácias sem buffy coat para outros serviços total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Plaquetas][Sem exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Plaquetas][Sem exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_exame_pre_transfusional</t>
@@ -2191,7 +2191,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Plaquetas para outros serviços sem exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Plaquetas][Com exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Plaquetas][Com exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_plaquetas_com_exame_pre_transfusional</t>
@@ -2200,7 +2200,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Plaquetas para outros serviços com exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Plaquetas][Total]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Plaquetas][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_plaquetas_total</t>
@@ -2209,7 +2209,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Plaquetas para outros serviços total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Plaquetas de Aférese][Sem exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Plaquetas de Aférese][Sem exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_plaquetas_aferese_sem_exame_pre_transfusional</t>
@@ -2218,7 +2218,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Plaquetas de Aférese para outros serviços sem exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Plaquetas de Aférese][Com exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Plaquetas de Aférese][Com exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_plaquetas_aferese_com_exame_pre_transfusional</t>
@@ -2227,7 +2227,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Plaquetas de Aférese para outros serviços com exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Plaquetas de Aférese][Total]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Plaquetas de Aférese][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_plaquetas_aferese_total</t>
@@ -2236,7 +2236,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Plaquetas de Aférese para outros serviços total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Leucócitos][Sem exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Leucócitos][Sem exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_leucocitos_sem_exame_pre_transfusional</t>
@@ -2245,7 +2245,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Leucócitos para outros serviços sem exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Leucócitos][Com exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Leucócitos][Com exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_leucocitos_com_exame_pre_transfusional</t>
@@ -2254,7 +2254,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Leucócitos para outros serviços com exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Leucócitos][Total]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Leucócitos][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_leucocitos_total</t>
@@ -2263,7 +2263,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Leucócitos para outros serviços total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Crioprecipitado][Sem exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Crioprecipitado][Sem exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_crioprecipitado_sem_exame_pre_transfusional</t>
@@ -2272,7 +2272,7 @@
     <t xml:space="preserve">Distribuição de Crioprecipitado para outros serviços sem exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Crioprecipitado][Com exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Crioprecipitado][Com exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_crioprecipitado_com_exame_pre_transfusional</t>
@@ -2281,7 +2281,7 @@
     <t xml:space="preserve">Distribuição de Crioprecipitado para outros serviços com exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Crioprecipitado][Total]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Crioprecipitado][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_crioprecipitado_total</t>
@@ -2290,7 +2290,7 @@
     <t xml:space="preserve">Distribuição de Crioprecipitado para outros serviços total.</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Plaquetas sem buffy coat][Sem exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Plaquetas sem buffy coat][Sem exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_buffy_coat_sem_exame_pre_transfusional</t>
@@ -2299,7 +2299,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Plaquetas sem buffy coat para outros serviços sem exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Plaquetas sem buffy coat][Com exame pré-transfusional ]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Plaquetas sem buffy coat][Com exame pré-transfusional ]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_buffy_coat_com_exame_pre_transfusional</t>
@@ -2308,7 +2308,7 @@
     <t xml:space="preserve">Distribuição de Concentrado de Plaquetas sem buffy coat para outros serviços com exame pré-transfusional .</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1(d) Distribuição para outros serviços [Concentrado de Plaquetas sem buffy coat][Total]</t>
+    <t xml:space="preserve">6.1(d) Distribuição para outros serviços     [Concentrado de Plaquetas sem buffy coat][Total]</t>
   </si>
   <si>
     <t xml:space="preserve">distribuicao_para_outros_servicos_concentrado_de_plaquetas_sem_buffy_coat_total</t>
@@ -2443,7 +2443,7 @@
     <t xml:space="preserve">Volume ou número de unidades de Plasma Comum enviadas para a produção industrial de hemoderivados.</t>
   </si>
   <si>
-    <t xml:space="preserve">HEMOPROD_3 - Observações</t>
+    <t xml:space="preserve">HEMOPROD_3 - Observações</t>
   </si>
   <si>
     <t xml:space="preserve">hemoprod_3_observacoes</t>
@@ -2483,7 +2483,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -2491,17 +2490,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2553,24 +2555,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2766,2983 +2772,2983 @@
   <dimension ref="A1:C270"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="118.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="95.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="135.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="119.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="95.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="135.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="5" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="5" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="5" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="5" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="5" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="5" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="5" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="5" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="5" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="5" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="5" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="5" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="5" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="5" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="5" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="5" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="5" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="5" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="5" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="5" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="5" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="5" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="5" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="5" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="5" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="5" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="5" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="5" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="5" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="5" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="5" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="5" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="5" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="5" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="5" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="5" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="5" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="5" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="5" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="5" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="5" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="5" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="5" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="5" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="5" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="5" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="5" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="5" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="5" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="5" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="5" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="5" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="5" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="5" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="5" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="5" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="5" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="5" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="5" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="5" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="5" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="5" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="5" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="5" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="5" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="5" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="5" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="5" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="5" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="5" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="5" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="5" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="5" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="5" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="5" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="5" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="5" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="5" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="5" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="5" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="5" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="5" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="5" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="5" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="5" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="5" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="5" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="5" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="5" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="5" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="5" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="5" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="5" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="5" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="5" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="5" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="5" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="5" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="5" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="5" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="5" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="5" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="5" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="5" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="5" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="5" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="5" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="5" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="5" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="5" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="5" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="5" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="5" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="5" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="5" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="5" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="5" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="5" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="5" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="5" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="5" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="5" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="5" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="5" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="5" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="5" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="5" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="5" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="5" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="5" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="5" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="5" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="5" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="5" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="5" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="5" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="5" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="5" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="5" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="5" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="5" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="5" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="5" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="5" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="5" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="5" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="5" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="5" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="5" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="5" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="5" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="5" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="5" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="5" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="5" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="5" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="5" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="5" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="5" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="5" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="5" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="5" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="5" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="5" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="5" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="5" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="5" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="5" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="5" t="s">
         <v>809</v>
       </c>
     </row>
